--- a/3_output/tablas/gse_tables/high_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/high_ajust_soci.xlsx
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2269021302606272</v>
+        <v>0.3722149330536254</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/high_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/high_ajust_soci.xlsx
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3722149330536254</v>
+        <v>0.3722152094176059</v>
       </c>
     </row>
   </sheetData>
